--- a/Documents/Data/Medical/Medical.xlsx
+++ b/Documents/Data/Medical/Medical.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Author's Name</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Oxford, United Kingdom</t>
+  </si>
+  <si>
+    <t>ISBN13</t>
   </si>
 </sst>
 </file>
@@ -190,7 +193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +208,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -227,11 +236,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,24 +524,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" customWidth="1"/>
-    <col min="9" max="9" width="46.21875" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -545,20 +559,23 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -574,20 +591,23 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="5">
+        <v>9781781805367</v>
+      </c>
+      <c r="G2" s="2">
         <v>15.67</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>42318</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -603,20 +623,23 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="5">
+        <v>9781401948320</v>
+      </c>
+      <c r="G3" s="2">
         <v>30.91</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>42720</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -632,20 +655,23 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="5">
+        <v>9781905812172</v>
+      </c>
+      <c r="G4" s="2">
         <v>35.4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>41552</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -661,20 +687,23 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="5">
+        <v>9780071825108</v>
+      </c>
+      <c r="G5" s="2">
         <v>58.06</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>42368</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -690,20 +719,23 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="5">
+        <v>9780199609628</v>
+      </c>
+      <c r="G6" s="2">
         <v>37.72</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>41707</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -719,20 +751,23 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="5">
+        <v>9781784701994</v>
+      </c>
+      <c r="G7" s="2">
         <v>23.46</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>42404</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -748,20 +783,23 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="5">
+        <v>9781455770052</v>
+      </c>
+      <c r="G8" s="2">
         <v>110.06</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>42170</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -777,20 +815,23 @@
       <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="5">
+        <v>9780141038872</v>
+      </c>
+      <c r="G9" s="2">
         <v>12.96</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>39667</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -806,20 +847,23 @@
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="5">
+        <v>9781853158667</v>
+      </c>
+      <c r="G10" s="2">
         <v>31.82</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>40461</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -835,20 +879,24 @@
       <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="5">
+        <v>9780865428713</v>
+      </c>
+      <c r="G11" s="2">
         <v>55.6</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>37809</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>